--- a/data/places_aayushi_visited.xlsx
+++ b/data/places_aayushi_visited.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/world-exploration-map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/world-exploration-map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE1633C-50ED-3349-851E-7BBB27EB5086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9EA2E9-C4FD-7D40-A3DD-806C8F4EB6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18980" windowHeight="19340" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="18980" windowHeight="19340" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Country</t>
   </si>
@@ -288,6 +288,27 @@
   </si>
   <si>
     <t>Missisauga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA </t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>I really only transit through LAX, I don't think I've ever actally stepped foot in LA…</t>
+  </si>
+  <si>
+    <t>Rotorua</t>
+  </si>
+  <si>
+    <t>Bay of Plenty</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Tasman</t>
   </si>
 </sst>
 </file>
@@ -640,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E30941-C829-6340-A053-D17F5B08A40A}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,6 +1345,51 @@
         <v>44986</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44621</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="1">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="1">
+        <v>42339</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
     <sortCondition ref="A1:A41"/>

--- a/data/places_aayushi_visited.xlsx
+++ b/data/places_aayushi_visited.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/world-exploration-map/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/av15397n/Documents/GitHub/world-exploration-map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9EA2E9-C4FD-7D40-A3DD-806C8F4EB6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6050D4A-37E1-F741-9369-CEDB9F52B6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="18980" windowHeight="19340" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="34680" windowHeight="19320" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,9 +296,6 @@
     <t>Los Angeles</t>
   </si>
   <si>
-    <t>I really only transit through LAX, I don't think I've ever actally stepped foot in LA…</t>
-  </si>
-  <si>
     <t>Rotorua</t>
   </si>
   <si>
@@ -309,6 +306,9 @@
   </si>
   <si>
     <t>Tasman</t>
+  </si>
+  <si>
+    <t>I really only transit through LAX, I don't think I've ever actually stepped foot in LA…</t>
   </si>
 </sst>
 </file>
@@ -663,13 +663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E30941-C829-6340-A053-D17F5B08A40A}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -804,6 +809,9 @@
       <c r="C8" t="s">
         <v>60</v>
       </c>
+      <c r="D8" s="1">
+        <v>40179</v>
+      </c>
       <c r="E8" s="1">
         <v>40179</v>
       </c>
@@ -818,6 +826,9 @@
       <c r="C9" t="s">
         <v>59</v>
       </c>
+      <c r="D9" s="1">
+        <v>40179</v>
+      </c>
       <c r="E9" s="1">
         <v>40179</v>
       </c>
@@ -832,6 +843,9 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
+      <c r="D10" s="1">
+        <v>40179</v>
+      </c>
       <c r="E10" s="1">
         <v>40179</v>
       </c>
@@ -846,6 +860,9 @@
       <c r="C11" t="s">
         <v>61</v>
       </c>
+      <c r="D11" s="1">
+        <v>39814</v>
+      </c>
       <c r="E11" s="1">
         <v>39814</v>
       </c>
@@ -860,6 +877,9 @@
       <c r="C12" t="s">
         <v>62</v>
       </c>
+      <c r="D12" s="1">
+        <v>40179</v>
+      </c>
       <c r="E12" s="1">
         <v>40179</v>
       </c>
@@ -874,6 +894,9 @@
       <c r="C13" t="s">
         <v>69</v>
       </c>
+      <c r="D13" s="1">
+        <v>40179</v>
+      </c>
       <c r="E13" s="1">
         <v>40179</v>
       </c>
@@ -905,6 +928,9 @@
       <c r="C15" t="s">
         <v>64</v>
       </c>
+      <c r="D15" s="1">
+        <v>40179</v>
+      </c>
       <c r="E15" s="1">
         <v>40179</v>
       </c>
@@ -919,6 +945,9 @@
       <c r="C16" t="s">
         <v>70</v>
       </c>
+      <c r="D16" s="1">
+        <v>40179</v>
+      </c>
       <c r="E16" s="1">
         <v>40179</v>
       </c>
@@ -1112,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="1">
-        <v>45017</v>
+        <v>45108</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1265,6 +1294,10 @@
       </c>
       <c r="C38" t="s">
         <v>52</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>44743</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1359,7 +1392,7 @@
         <v>44621</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1367,10 +1400,13 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43891</v>
       </c>
       <c r="E46" s="1">
         <v>43891</v>
@@ -1381,10 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42339</v>
       </c>
       <c r="E47" s="1">
         <v>42339</v>

--- a/data/places_aayushi_visited.xlsx
+++ b/data/places_aayushi_visited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/av15397n/Documents/GitHub/world-exploration-map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6050D4A-37E1-F741-9369-CEDB9F52B6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B530E0-74BF-C448-843B-3B948AF75DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="34680" windowHeight="19320" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
   <si>
     <t>Country</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>I really only transit through LAX, I don't think I've ever actually stepped foot in LA…</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Attended Posit Conference here!</t>
+  </si>
+  <si>
+    <t>Attended Tableau Conference here!</t>
   </si>
 </sst>
 </file>
@@ -661,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E30941-C829-6340-A053-D17F5B08A40A}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="1">
-        <v>43831</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,7 +808,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>43831</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1115,6 +1127,9 @@
       <c r="E26" s="1">
         <v>45047</v>
       </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1427,6 +1442,26 @@
       </c>
       <c r="E47" s="1">
         <v>42339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45170</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45170</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/places_aayushi_visited.xlsx
+++ b/data/places_aayushi_visited.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/av15397n/Documents/GitHub/world-exploration-map/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/world-exploration-map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B530E0-74BF-C448-843B-3B948AF75DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18728CF4-0615-7545-99BF-5D94129DCB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="34680" windowHeight="19320" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="28180" windowHeight="19320" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
   <si>
     <t>Country</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Studied for a semester at Queens' University in 2019.</t>
   </si>
   <si>
-    <t>Probably my favorite vacation spot in India tbh.</t>
-  </si>
-  <si>
     <t>Lived here for almost 9 years!</t>
   </si>
   <si>
@@ -321,6 +318,66 @@
   </si>
   <si>
     <t>Attended Tableau Conference here!</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Visited Einstein's office here, where he actually used to work!</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>Niagara Falls</t>
+  </si>
+  <si>
+    <t>If you're thinking about visiting Niagara Falls, always visit from the Canadian side! It's just superior!</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>The very first Tim Horton's shop is located here!</t>
+  </si>
+  <si>
+    <t>Falls Church</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Herndon</t>
+  </si>
+  <si>
+    <t>Ashburn</t>
+  </si>
+  <si>
+    <t>Fairfax</t>
+  </si>
+  <si>
+    <t>Queen St. had great vibes!</t>
+  </si>
+  <si>
+    <t>The hot springs here are divine…</t>
+  </si>
+  <si>
+    <t>I-95 Milford SB Service Plaza is a great place to stop if you're traveling through Connecticut.</t>
+  </si>
+  <si>
+    <t>So much fun stuff here…</t>
+  </si>
+  <si>
+    <t>Attended a conference at Johns Hopkins University - Applied Physics Laboratory.</t>
+  </si>
+  <si>
+    <t>My hometown! &lt;3</t>
+  </si>
+  <si>
+    <t>Probably my favorite vacation spot in India tbh. Very spiritual.</t>
   </si>
 </sst>
 </file>
@@ -673,20 +730,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E30941-C829-6340-A053-D17F5B08A40A}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -711,155 +769,162 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
-        <v>43831</v>
+        <v>42917</v>
       </c>
       <c r="E2" s="1">
-        <v>43862</v>
+        <v>42917</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>44805</v>
+        <v>44197</v>
       </c>
       <c r="E3" s="1">
-        <v>44986</v>
+        <v>44621</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
-        <v>43709</v>
+        <v>43831</v>
       </c>
       <c r="E4" s="1">
-        <v>44805</v>
+        <v>43862</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1">
-        <v>43709</v>
+        <v>43891</v>
       </c>
       <c r="E5" s="1">
-        <v>44896</v>
+        <v>43891</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1">
-        <v>45139</v>
+        <v>44621</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41365</v>
       </c>
       <c r="E7" s="1">
-        <v>45139</v>
+        <v>44621</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1">
-        <v>40179</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>40179</v>
+        <v>44743</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1">
-        <v>40179</v>
-      </c>
-      <c r="E9" s="1">
-        <v>40179</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="1">
-        <v>40179</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>40179</v>
+        <v>45261</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -867,16 +932,16 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1">
-        <v>39814</v>
+        <v>40179</v>
       </c>
       <c r="E11" s="1">
-        <v>39814</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -884,67 +949,64 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1">
-        <v>40179</v>
+        <v>39814</v>
       </c>
       <c r="E12" s="1">
-        <v>40179</v>
+        <v>39814</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1">
-        <v>40179</v>
+        <v>45170</v>
       </c>
       <c r="E13" s="1">
-        <v>40179</v>
+        <v>45170</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1">
-        <v>40179</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1">
-        <v>40179</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -955,7 +1017,7 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1">
         <v>40179</v>
@@ -969,146 +1031,140 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="D17" s="1">
+        <v>40179</v>
       </c>
       <c r="E17" s="1">
-        <v>43101</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1">
-        <v>43831</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>96</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45261</v>
       </c>
       <c r="E19" s="1">
-        <v>43831</v>
+        <v>45261</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="1">
-        <v>41365</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1">
-        <v>44621</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44197</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1">
-        <v>44621</v>
+        <v>43466</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1">
-        <v>42705</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1">
-        <v>44348</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1">
-        <v>42339</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1">
-        <v>42856</v>
+        <v>43435</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1">
-        <v>41944</v>
-      </c>
-      <c r="E24" s="1">
-        <v>43556</v>
+        <v>43435</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1">
-        <v>43586</v>
+        <v>45047</v>
       </c>
       <c r="E25" s="1">
-        <v>43586</v>
+        <v>45047</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1116,129 +1172,141 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1">
-        <v>45047</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1">
-        <v>45047</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44805</v>
       </c>
       <c r="E27" s="1">
-        <v>44682</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43709</v>
       </c>
       <c r="E28" s="1">
-        <v>45108</v>
+        <v>44805</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1">
-        <v>43405</v>
+        <v>43709</v>
       </c>
       <c r="E29" s="1">
-        <v>44743</v>
-      </c>
-      <c r="F29" t="s">
-        <v>78</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43709</v>
       </c>
       <c r="E30" s="1">
-        <v>43466</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>97</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43709</v>
       </c>
       <c r="E31" s="1">
-        <v>43466</v>
+        <v>45231</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D32" s="1">
-        <v>44652</v>
+        <v>43709</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45231</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1">
-        <v>42917</v>
+        <v>42339</v>
       </c>
       <c r="E33" s="1">
-        <v>42917</v>
-      </c>
-      <c r="F33" t="s">
-        <v>79</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1246,44 +1314,47 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="1">
-        <v>42917</v>
+        <v>39</v>
       </c>
       <c r="E34" s="1">
-        <v>42917</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="D35" s="1">
+        <v>40179</v>
       </c>
       <c r="E35" s="1">
-        <v>43466</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="D36" s="1">
+        <v>40179</v>
       </c>
       <c r="E36" s="1">
-        <v>44652</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1291,13 +1362,19 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43405</v>
       </c>
       <c r="E37" s="1">
-        <v>43435</v>
+        <v>44743</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1305,14 +1382,16 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>53</v>
+      </c>
       <c r="E38" s="1">
-        <v>44743</v>
+        <v>43466</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1323,41 +1402,44 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="1">
-        <v>43466</v>
-      </c>
-      <c r="F39" t="s">
-        <v>80</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43586</v>
       </c>
       <c r="E40" s="1">
-        <v>44682</v>
+        <v>43586</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>87</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42339</v>
       </c>
       <c r="E41" s="1">
-        <v>44652</v>
+        <v>42339</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1365,108 +1447,278 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42917</v>
+      </c>
+      <c r="E42" s="1">
+        <v>42917</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45139</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D44" s="1">
-        <v>43709</v>
+        <v>40179</v>
       </c>
       <c r="E44" s="1">
-        <v>44986</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E45" s="1">
-        <v>44621</v>
+        <v>43831</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1">
-        <v>43891</v>
+        <v>40179</v>
       </c>
       <c r="E46" s="1">
-        <v>43891</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="1">
-        <v>42339</v>
+        <v>65</v>
       </c>
       <c r="E47" s="1">
-        <v>42339</v>
+        <v>43101</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="1">
-        <v>45170</v>
+        <v>67</v>
       </c>
       <c r="E48" s="1">
-        <v>45170</v>
-      </c>
-      <c r="F48" t="s">
-        <v>93</v>
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="1">
+        <v>42705</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="1">
+        <v>41944</v>
+      </c>
+      <c r="E52" s="1">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44743</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44743</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44743</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44743</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44743</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44743</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
-    <sortCondition ref="A1:A41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F52">
+    <sortCondition ref="B1:B52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/places_aayushi_visited.xlsx
+++ b/data/places_aayushi_visited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/world-exploration-map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18728CF4-0615-7545-99BF-5D94129DCB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888EB9D6-6AEB-7545-9F50-2E94B51B35C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="28180" windowHeight="19320" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
+    <workbookView xWindow="16680" yWindow="500" windowWidth="34000" windowHeight="19320" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="123">
   <si>
     <t>Country</t>
   </si>
@@ -284,9 +284,6 @@
     <t>MD</t>
   </si>
   <si>
-    <t>Missisauga</t>
-  </si>
-  <si>
     <t xml:space="preserve">CA </t>
   </si>
   <si>
@@ -378,6 +375,36 @@
   </si>
   <si>
     <t>Probably my favorite vacation spot in India tbh. Very spiritual.</t>
+  </si>
+  <si>
+    <t>Lived/Visited Status</t>
+  </si>
+  <si>
+    <t>Visited</t>
+  </si>
+  <si>
+    <t>Lived</t>
+  </si>
+  <si>
+    <t>Regularly visited</t>
+  </si>
+  <si>
+    <t>Bluemont</t>
+  </si>
+  <si>
+    <t>Wantagh</t>
+  </si>
+  <si>
+    <t>Go to Jani chinese restaurant if you're ever here!</t>
+  </si>
+  <si>
+    <t>Mississauga</t>
+  </si>
+  <si>
+    <t>Purcellville</t>
+  </si>
+  <si>
+    <t>Great Country Farms is a fantastic spot for apple and pumpking picking! Plus the scenery here is just beautiful…mountains, open skies…what's not to love?</t>
   </si>
 </sst>
 </file>
@@ -730,11 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E30941-C829-6340-A053-D17F5B08A40A}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,10 +771,11 @@
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,178 +792,213 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1">
-        <v>42917</v>
+        <v>43831</v>
       </c>
       <c r="E2" s="1">
-        <v>42917</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43862</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>44197</v>
+        <v>44805</v>
       </c>
       <c r="E3" s="1">
-        <v>44621</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45231</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>43831</v>
+        <v>43709</v>
       </c>
       <c r="E4" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44805</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>43891</v>
+        <v>43709</v>
       </c>
       <c r="E5" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45231</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>120</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43709</v>
       </c>
       <c r="E6" s="1">
-        <v>44621</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45231</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
-        <v>41365</v>
+        <v>43709</v>
       </c>
       <c r="E7" s="1">
-        <v>44621</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45231</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43709</v>
+      </c>
       <c r="E8" s="1">
-        <v>44743</v>
-      </c>
-      <c r="F8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45231</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1">
+        <v>40179</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40179</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="D10" s="1">
+        <v>39814</v>
       </c>
       <c r="E10" s="1">
-        <v>45261</v>
-      </c>
-      <c r="F10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39814</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1">
         <v>40179</v>
@@ -943,98 +1006,113 @@
       <c r="E11" s="1">
         <v>40179</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1">
-        <v>39814</v>
+        <v>40179</v>
       </c>
       <c r="E12" s="1">
-        <v>39814</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40179</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45170</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
-        <v>45170</v>
-      </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45139</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40179</v>
       </c>
       <c r="E14" s="1">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40179</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40179</v>
       </c>
       <c r="E15" s="1">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40179</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1">
-        <v>40179</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1">
-        <v>40179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45139</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1">
         <v>40179</v>
@@ -1042,579 +1120,694 @@
       <c r="E17" s="1">
         <v>40179</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43831</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1">
-        <v>45261</v>
+        <v>40179</v>
       </c>
       <c r="E19" s="1">
-        <v>45261</v>
-      </c>
-      <c r="F19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40179</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1">
+        <v>43101</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1">
+        <v>43831</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1">
         <v>45139</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="F22" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44621</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43891</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41365</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44621</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42339</v>
+      </c>
+      <c r="E26" s="1">
+        <v>42856</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43586</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42339</v>
+      </c>
+      <c r="E28" s="1">
+        <v>42339</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42705</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44348</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41944</v>
+      </c>
+      <c r="E30" s="1">
+        <v>43556</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42917</v>
+      </c>
+      <c r="E31" s="1">
+        <v>42917</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44621</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>44743</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45261</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45170</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45170</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44652</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45261</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45261</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E40" s="1">
         <v>43466</v>
       </c>
-      <c r="F21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="F40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E41" s="1">
         <v>44652</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="F41" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C42" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E42" s="1">
         <v>43435</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="F42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43435</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="1">
-        <v>43435</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D44" s="1">
         <v>45047</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E44" s="1">
         <v>45047</v>
       </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="F44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E45" s="1">
         <v>44682</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
-        <v>44805</v>
-      </c>
-      <c r="E27" s="1">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1">
-        <v>43709</v>
-      </c>
-      <c r="E28" s="1">
-        <v>44805</v>
-      </c>
-      <c r="F28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="1">
-        <v>43709</v>
-      </c>
-      <c r="E29" s="1">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1">
-        <v>43709</v>
-      </c>
-      <c r="E30" s="1">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="1">
-        <v>43709</v>
-      </c>
-      <c r="E31" s="1">
-        <v>45231</v>
-      </c>
-      <c r="F31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="1">
-        <v>43709</v>
-      </c>
-      <c r="E32" s="1">
-        <v>45231</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F45" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43405</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44743</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44682</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42917</v>
+      </c>
+      <c r="E50" s="1">
+        <v>42917</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44652</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="1">
-        <v>42339</v>
-      </c>
-      <c r="E33" s="1">
-        <v>42856</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="1">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="1">
-        <v>40179</v>
-      </c>
-      <c r="E35" s="1">
-        <v>40179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="1">
-        <v>40179</v>
-      </c>
-      <c r="E36" s="1">
-        <v>40179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="1">
-        <v>43405</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D52" s="1">
         <v>44743</v>
       </c>
-      <c r="F37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="1">
-        <v>43466</v>
-      </c>
-      <c r="F38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="1">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="1">
-        <v>43586</v>
-      </c>
-      <c r="E40" s="1">
-        <v>43586</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="1">
-        <v>42339</v>
-      </c>
-      <c r="E41" s="1">
-        <v>42339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="1">
-        <v>42917</v>
-      </c>
-      <c r="E42" s="1">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="1">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="1">
-        <v>40179</v>
-      </c>
-      <c r="E44" s="1">
-        <v>40179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="1">
-        <v>40179</v>
-      </c>
-      <c r="E46" s="1">
-        <v>40179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="1">
-        <v>43101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="1">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="1">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="1">
-        <v>42705</v>
-      </c>
-      <c r="E51" s="1">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="1">
-        <v>41944</v>
-      </c>
       <c r="E52" s="1">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45200</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1628,10 +1821,13 @@
         <v>44743</v>
       </c>
       <c r="E53" s="1">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45261</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1645,10 +1841,13 @@
         <v>44743</v>
       </c>
       <c r="E54" s="1">
-        <v>45261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45200</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1662,10 +1861,13 @@
         <v>44743</v>
       </c>
       <c r="E55" s="1">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45108</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1681,8 +1883,11 @@
       <c r="E56" s="1">
         <v>45108</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1696,10 +1901,13 @@
         <v>44743</v>
       </c>
       <c r="E57" s="1">
-        <v>45108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45200</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1707,18 +1915,64 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D58" s="1">
-        <v>44743</v>
+        <v>45200</v>
       </c>
       <c r="E58" s="1">
         <v>45200</v>
       </c>
+      <c r="F58" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45200</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45200</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="1">
+        <v>44652</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F52">
-    <sortCondition ref="B1:B52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G58">
+    <sortCondition ref="A1:A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/places_aayushi_visited.xlsx
+++ b/data/places_aayushi_visited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/world-exploration-map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888EB9D6-6AEB-7545-9F50-2E94B51B35C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C763C946-E923-B446-A832-BB66403799B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="500" windowWidth="34000" windowHeight="19320" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
+    <workbookView xWindow="1840" yWindow="500" windowWidth="34000" windowHeight="19320" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="128">
   <si>
     <t>Country</t>
   </si>
@@ -405,6 +405,21 @@
   </si>
   <si>
     <t>Great Country Farms is a fantastic spot for apple and pumpking picking! Plus the scenery here is just beautiful…mountains, open skies…what's not to love?</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Attended SpaceCom 2024 conference here, and visited Universal Studios!</t>
+  </si>
+  <si>
+    <t>Merritt Island</t>
+  </si>
+  <si>
+    <t>Visited Kennedy Space Center here!</t>
   </si>
 </sst>
 </file>
@@ -757,11 +772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E30941-C829-6340-A053-D17F5B08A40A}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1970,6 +1985,52 @@
         <v>119</v>
       </c>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45323</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45323</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G58">
     <sortCondition ref="A1:A58"/>

--- a/data/places_aayushi_visited.xlsx
+++ b/data/places_aayushi_visited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/world-exploration-map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C763C946-E923-B446-A832-BB66403799B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3F6F3D-F716-6045-B41C-CB3FDC6E996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="34000" windowHeight="19320" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="138">
   <si>
     <t>Country</t>
   </si>
@@ -420,6 +420,36 @@
   </si>
   <si>
     <t>Visited Kennedy Space Center here!</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t>South Windsor</t>
+  </si>
+  <si>
+    <t>Visited University of Connecticut here! It's a very beautiful campus!</t>
+  </si>
+  <si>
+    <t>Stayed at Cambria Hotel Manchester South Windsor here, it's a bougie hotel without the bougie price tag!</t>
+  </si>
+  <si>
+    <t>Nice downtown area.</t>
+  </si>
+  <si>
+    <t>Port Deposit</t>
+  </si>
+  <si>
+    <t>Stopped at Chesapeake Travel Plaza - bougie rest area!</t>
+  </si>
+  <si>
+    <t>College Park</t>
+  </si>
+  <si>
+    <t>Visited University of Maryland campus!</t>
   </si>
 </sst>
 </file>
@@ -772,11 +802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E30941-C829-6340-A053-D17F5B08A40A}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1485,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="1">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>116</v>
@@ -1544,6 +1574,9 @@
       <c r="C38" t="s">
         <v>55</v>
       </c>
+      <c r="D38" s="1">
+        <v>43405</v>
+      </c>
       <c r="E38" s="1">
         <v>44652</v>
       </c>
@@ -1585,7 +1618,7 @@
         <v>47</v>
       </c>
       <c r="E40" s="1">
-        <v>43466</v>
+        <v>45375</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>115</v>
@@ -2029,6 +2062,121 @@
       </c>
       <c r="G62" s="1" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45352</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45352</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45352</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45352</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="1">
+        <v>45352</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45352</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45352</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45352</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45323</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
